--- a/Assets/_Project/Scripts/StageDB/StageDB.xlsx
+++ b/Assets/_Project/Scripts/StageDB/StageDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HKJ\Desktop\UnityProject\TakeBackMyHome\Assets\_Project\ScriptableObject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Unity Projects\TakeBackMyHome\Assets\_Project\Scripts\StageDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD90F3-DA0D-471D-9E30-CA46C5C8D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A171D8C-F578-4058-B9FC-35CF5C14074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="1356" windowWidth="20916" windowHeight="10884" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>## level : 스테이지 레벨 
-/// type : 유형 (장애물, Count) 0 : Count, 1 : Obstacle
-/// type2 : object 종류 (ObstacleType, CountType)
-/// position : object 위치 (0 : Right, 1: Left ,2 : Both)
-/// value : 장애물, Count의 계수 (장애물 : 장애물의 속도, Count : Count 계수)
-/// value2 : Both일 경우, 장애물, Count의 계수 (장애물 : 장애물의 속도, Count : Count 계수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +64,15 @@
   </si>
   <si>
     <t>#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>## level : 스테이지 레벨 
+/// type : 유형 (장애물, Count) 0 : Count, 1 : Obstacle
+/// type2 : object 종류 (ObstacleType, CountType)
+/// position : object 위치 (0 : Right, 1: Left ,2 : Both)
+/// value : 장애물, Count의 계수 (장애물 : 장애물의 속도 or Finish 좀비 숫자, Count : Count 계수)
+/// value2 : Both일 경우, 장애물, Count의 계수 (장애물 : 장애물의 속도 or Finish 좀비 생성 주기 , Count : Count 계수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73F9436-191E-42A0-8B94-82AD64CF8B86}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,12 +471,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -496,7 +496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -776,72 +776,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>40</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -849,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -881,27 +881,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -918,39 +918,39 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -969,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -981,27 +981,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1012,36 +1012,36 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1069,26 +1069,41 @@
         <v>1</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1097,76 +1112,61 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>50</v>
       </c>
       <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1174,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1186,87 +1186,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
         <v>50</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>60</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1286,87 +1286,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1386,152 +1386,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1551,87 +1551,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1639,10 +1639,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1651,292 +1651,292 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>20</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>5</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>5</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
         <v>10</v>
       </c>
-      <c r="F72">
+      <c r="F76">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>50</v>
       </c>
-      <c r="F73">
+      <c r="F77">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1944,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1976,33 +1976,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A34:XFD34"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A66:XFD66"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A70:XFD70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Project/Scripts/StageDB/StageDB.xlsx
+++ b/Assets/_Project/Scripts/StageDB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Unity Projects\TakeBackMyHome\Assets\_Project\Scripts\StageDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A171D8C-F578-4058-B9FC-35CF5C14074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFCBF4-3279-47C1-96AD-8CF577093E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -815,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -915,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -935,10 +935,10 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,10 +1465,10 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1585,10 +1585,10 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1790,10 +1790,10 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1910,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/_Project/Scripts/StageDB/StageDB.xlsx
+++ b/Assets/_Project/Scripts/StageDB/StageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Unity Projects\TakeBackMyHome\Assets\_Project\Scripts\StageDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89684DC-BEF9-42C0-9201-927F25AE8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D9B93F-25E2-4A38-955C-1BF0F1A65F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>

--- a/Assets/_Project/Scripts/StageDB/StageDB.xlsx
+++ b/Assets/_Project/Scripts/StageDB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Unity Projects\TakeBackMyHome\Assets\_Project\Scripts\StageDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D9B93F-25E2-4A38-955C-1BF0F1A65F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC5081-45F8-48F0-ADA2-0C4E12CE81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73F9436-191E-42A0-8B94-82AD64CF8B86}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1">
         <v>5</v>
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
